--- a/PCA/pca.xlsx
+++ b/PCA/pca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\R\wd\rcode\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0187A-1DDF-4C26-86C9-3096B972FB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3548685-381F-40B7-8518-297157E9F3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pca.pre" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pca.post!$A$1:$M$656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'pca.post.c'!$L$1:$L$225</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pca.pre!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8553" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8553" uniqueCount="59">
   <si>
     <t>camera</t>
   </si>
@@ -217,6 +218,9 @@
   </si>
   <si>
     <t>ntraff</t>
+  </si>
+  <si>
+    <t>Aquatic Rodent</t>
   </si>
 </sst>
 </file>
@@ -47852,7 +47856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M352"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -53773,7 +53777,7 @@
         <v>9</v>
       </c>
       <c r="L141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M141" t="s">
         <v>51</v>
@@ -53941,7 +53945,7 @@
         <v>9</v>
       </c>
       <c r="L145" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M145" t="s">
         <v>52</v>
@@ -54025,7 +54029,7 @@
         <v>9</v>
       </c>
       <c r="L147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M147" t="s">
         <v>51</v>
@@ -54067,7 +54071,7 @@
         <v>9</v>
       </c>
       <c r="L148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M148" t="s">
         <v>51</v>
@@ -54109,7 +54113,7 @@
         <v>12</v>
       </c>
       <c r="L149" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M149" t="s">
         <v>51</v>
@@ -54151,7 +54155,7 @@
         <v>9</v>
       </c>
       <c r="L150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M150" t="s">
         <v>51</v>
@@ -54193,7 +54197,7 @@
         <v>12</v>
       </c>
       <c r="L151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M151" t="s">
         <v>51</v>
@@ -54235,7 +54239,7 @@
         <v>9</v>
       </c>
       <c r="L152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M152" t="s">
         <v>51</v>
@@ -54319,7 +54323,7 @@
         <v>17</v>
       </c>
       <c r="L154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M154" t="s">
         <v>51</v>
@@ -54361,7 +54365,7 @@
         <v>9</v>
       </c>
       <c r="L155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M155" t="s">
         <v>51</v>
@@ -54403,7 +54407,7 @@
         <v>9</v>
       </c>
       <c r="L156" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M156" t="s">
         <v>51</v>
@@ -54487,7 +54491,7 @@
         <v>9</v>
       </c>
       <c r="L158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M158" t="s">
         <v>51</v>
@@ -54529,7 +54533,7 @@
         <v>9</v>
       </c>
       <c r="L159" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M159" t="s">
         <v>51</v>
@@ -54571,7 +54575,7 @@
         <v>9</v>
       </c>
       <c r="L160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M160" t="s">
         <v>51</v>
@@ -54655,7 +54659,7 @@
         <v>9</v>
       </c>
       <c r="L162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M162" t="s">
         <v>51</v>
@@ -54697,7 +54701,7 @@
         <v>9</v>
       </c>
       <c r="L163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M163" t="s">
         <v>51</v>
@@ -54823,7 +54827,7 @@
         <v>9</v>
       </c>
       <c r="L166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M166" t="s">
         <v>51</v>
@@ -55075,7 +55079,7 @@
         <v>9</v>
       </c>
       <c r="L172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M172" t="s">
         <v>51</v>
@@ -55117,7 +55121,7 @@
         <v>9</v>
       </c>
       <c r="L173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M173" t="s">
         <v>51</v>
@@ -55159,7 +55163,7 @@
         <v>9</v>
       </c>
       <c r="L174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M174" t="s">
         <v>51</v>
@@ -56251,7 +56255,7 @@
         <v>13</v>
       </c>
       <c r="L200" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M200" t="s">
         <v>51</v>
@@ -61375,7 +61379,7 @@
         <v>17</v>
       </c>
       <c r="L322" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M322" t="s">
         <v>52</v>
@@ -62650,11 +62654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="54.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -63839,7 +63846,7 @@
         <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
         <v>52</v>
@@ -68841,7 +68848,7 @@
         <v>9</v>
       </c>
       <c r="L151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M151" t="s">
         <v>51</v>
@@ -68882,7 +68889,7 @@
         <v>9</v>
       </c>
       <c r="L152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M152" t="s">
         <v>51</v>
@@ -69087,7 +69094,7 @@
         <v>9</v>
       </c>
       <c r="L157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M157" t="s">
         <v>51</v>
@@ -69128,7 +69135,7 @@
         <v>9</v>
       </c>
       <c r="L158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M158" t="s">
         <v>51</v>
@@ -69169,7 +69176,7 @@
         <v>13</v>
       </c>
       <c r="L159" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M159" t="s">
         <v>52</v>
@@ -69210,7 +69217,7 @@
         <v>17</v>
       </c>
       <c r="L160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M160" t="s">
         <v>51</v>
@@ -69251,7 +69258,7 @@
         <v>9</v>
       </c>
       <c r="L161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M161" t="s">
         <v>51</v>
@@ -69374,7 +69381,7 @@
         <v>13</v>
       </c>
       <c r="L164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M164" t="s">
         <v>51</v>
@@ -69415,7 +69422,7 @@
         <v>13</v>
       </c>
       <c r="L165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M165" t="s">
         <v>51</v>
@@ -69456,7 +69463,7 @@
         <v>13</v>
       </c>
       <c r="L166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M166" t="s">
         <v>51</v>
@@ -69497,7 +69504,7 @@
         <v>17</v>
       </c>
       <c r="L167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M167" t="s">
         <v>51</v>
@@ -69538,7 +69545,7 @@
         <v>9</v>
       </c>
       <c r="L168" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M168" t="s">
         <v>51</v>
@@ -71882,6 +71889,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L225" xr:uid="{AD262058-6D14-420B-8C83-5C17C2A15473}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PCA/pca.xlsx
+++ b/PCA/pca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\R\wd\rcode\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0358DE-DEB5-4352-BFFF-D562B45105EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520EE11-5F16-4E9B-B83A-05912FCE7261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17415" yWindow="6990" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pca.pre" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8533" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="59">
   <si>
     <t>camera</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>ntraff</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -47852,15 +47855,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M350"/>
+  <dimension ref="A1:N350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A322" activeCellId="1" sqref="A145:XFD145 A322:XFD322"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47900,8 +47906,11 @@
       <c r="M1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -47942,8 +47951,12 @@
       <c r="M2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>IF(I2="Coyote",1,IF(I2="Deer",2,IF(I2="Deer Mouse",3,IF(I2="Opossum",4,5))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -47984,8 +47997,12 @@
       <c r="M3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">IF(I3="Coyote",1,IF(I3="Deer",2,IF(I3="Deer Mouse",3,IF(I3="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -48026,8 +48043,12 @@
       <c r="M4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -48068,8 +48089,12 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -48110,8 +48135,12 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -48152,8 +48181,12 @@
       <c r="M7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -48194,8 +48227,12 @@
       <c r="M8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -48236,8 +48273,12 @@
       <c r="M9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -48278,8 +48319,12 @@
       <c r="M10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -48320,8 +48365,12 @@
       <c r="M11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -48362,8 +48411,12 @@
       <c r="M12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -48404,8 +48457,12 @@
       <c r="M13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -48446,8 +48503,12 @@
       <c r="M14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -48488,8 +48549,12 @@
       <c r="M15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -48530,8 +48595,12 @@
       <c r="M16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -48572,8 +48641,12 @@
       <c r="M17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -48614,8 +48687,12 @@
       <c r="M18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -48656,8 +48733,12 @@
       <c r="M19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -48698,8 +48779,12 @@
       <c r="M20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -48740,8 +48825,12 @@
       <c r="M21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -48782,8 +48871,12 @@
       <c r="M22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -48824,8 +48917,12 @@
       <c r="M23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -48866,8 +48963,12 @@
       <c r="M24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -48908,8 +49009,12 @@
       <c r="M25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12</v>
       </c>
@@ -48950,8 +49055,12 @@
       <c r="M26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
@@ -48992,8 +49101,12 @@
       <c r="M27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
@@ -49034,8 +49147,12 @@
       <c r="M28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12</v>
       </c>
@@ -49076,8 +49193,12 @@
       <c r="M29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -49118,8 +49239,12 @@
       <c r="M30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -49160,8 +49285,12 @@
       <c r="M31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -49202,8 +49331,12 @@
       <c r="M32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -49244,8 +49377,12 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -49286,8 +49423,12 @@
       <c r="M34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -49328,8 +49469,12 @@
       <c r="M35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -49370,8 +49515,12 @@
       <c r="M36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -49412,8 +49561,12 @@
       <c r="M37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -49454,8 +49607,12 @@
       <c r="M38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -49496,8 +49653,12 @@
       <c r="M39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -49538,8 +49699,12 @@
       <c r="M40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -49580,8 +49745,12 @@
       <c r="M41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -49622,8 +49791,12 @@
       <c r="M42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -49664,8 +49837,12 @@
       <c r="M43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -49706,8 +49883,12 @@
       <c r="M44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -49748,8 +49929,12 @@
       <c r="M45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -49790,8 +49975,12 @@
       <c r="M46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -49832,8 +50021,12 @@
       <c r="M47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -49874,8 +50067,12 @@
       <c r="M48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -49916,8 +50113,12 @@
       <c r="M49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -49958,8 +50159,12 @@
       <c r="M50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -50000,8 +50205,12 @@
       <c r="M51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -50042,8 +50251,12 @@
       <c r="M52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -50084,8 +50297,12 @@
       <c r="M53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -50126,8 +50343,12 @@
       <c r="M54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -50168,8 +50389,12 @@
       <c r="M55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -50210,8 +50435,12 @@
       <c r="M56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5</v>
       </c>
@@ -50252,8 +50481,12 @@
       <c r="M57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
@@ -50294,8 +50527,12 @@
       <c r="M58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5</v>
       </c>
@@ -50336,8 +50573,12 @@
       <c r="M59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -50378,8 +50619,12 @@
       <c r="M60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -50420,8 +50665,12 @@
       <c r="M61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -50462,8 +50711,12 @@
       <c r="M62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -50504,8 +50757,12 @@
       <c r="M63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5</v>
       </c>
@@ -50546,8 +50803,12 @@
       <c r="M64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5</v>
       </c>
@@ -50588,8 +50849,12 @@
       <c r="M65" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -50630,8 +50895,12 @@
       <c r="M66" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -50672,8 +50941,12 @@
       <c r="M67" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="1">IF(I67="Coyote",1,IF(I67="Deer",2,IF(I67="Deer Mouse",3,IF(I67="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -50714,8 +50987,12 @@
       <c r="M68" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5</v>
       </c>
@@ -50756,8 +51033,12 @@
       <c r="M69" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -50798,8 +51079,12 @@
       <c r="M70" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -50840,8 +51125,12 @@
       <c r="M71" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -50882,8 +51171,12 @@
       <c r="M72" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5</v>
       </c>
@@ -50924,8 +51217,12 @@
       <c r="M73" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5</v>
       </c>
@@ -50966,8 +51263,12 @@
       <c r="M74" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5</v>
       </c>
@@ -51008,8 +51309,12 @@
       <c r="M75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -51050,8 +51355,12 @@
       <c r="M76" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -51092,8 +51401,12 @@
       <c r="M77" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5</v>
       </c>
@@ -51134,8 +51447,12 @@
       <c r="M78" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5</v>
       </c>
@@ -51176,8 +51493,12 @@
       <c r="M79" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5</v>
       </c>
@@ -51218,8 +51539,12 @@
       <c r="M80" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5</v>
       </c>
@@ -51260,8 +51585,12 @@
       <c r="M81" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5</v>
       </c>
@@ -51302,8 +51631,12 @@
       <c r="M82" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5</v>
       </c>
@@ -51344,8 +51677,12 @@
       <c r="M83" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
@@ -51386,8 +51723,12 @@
       <c r="M84" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -51428,8 +51769,12 @@
       <c r="M85" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6</v>
       </c>
@@ -51470,8 +51815,12 @@
       <c r="M86" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -51512,8 +51861,12 @@
       <c r="M87" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -51554,8 +51907,12 @@
       <c r="M88" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6</v>
       </c>
@@ -51596,8 +51953,12 @@
       <c r="M89" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6</v>
       </c>
@@ -51638,8 +51999,12 @@
       <c r="M90" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -51680,8 +52045,12 @@
       <c r="M91" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -51722,8 +52091,12 @@
       <c r="M92" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
@@ -51764,8 +52137,12 @@
       <c r="M93" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6</v>
       </c>
@@ -51806,8 +52183,12 @@
       <c r="M94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6</v>
       </c>
@@ -51848,8 +52229,12 @@
       <c r="M95" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>6</v>
       </c>
@@ -51890,8 +52275,12 @@
       <c r="M96" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -51932,8 +52321,12 @@
       <c r="M97" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6</v>
       </c>
@@ -51974,8 +52367,12 @@
       <c r="M98" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -52016,8 +52413,12 @@
       <c r="M99" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6</v>
       </c>
@@ -52058,8 +52459,12 @@
       <c r="M100" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
@@ -52100,8 +52505,12 @@
       <c r="M101" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6</v>
       </c>
@@ -52142,8 +52551,12 @@
       <c r="M102" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6</v>
       </c>
@@ -52184,8 +52597,12 @@
       <c r="M103" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6</v>
       </c>
@@ -52226,8 +52643,12 @@
       <c r="M104" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6</v>
       </c>
@@ -52268,8 +52689,12 @@
       <c r="M105" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6</v>
       </c>
@@ -52310,8 +52735,12 @@
       <c r="M106" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -52352,8 +52781,12 @@
       <c r="M107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -52394,8 +52827,12 @@
       <c r="M108" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -52436,8 +52873,12 @@
       <c r="M109" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -52478,8 +52919,12 @@
       <c r="M110" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -52520,8 +52965,12 @@
       <c r="M111" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -52562,8 +53011,12 @@
       <c r="M112" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -52604,8 +53057,12 @@
       <c r="M113" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -52646,8 +53103,12 @@
       <c r="M114" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -52688,8 +53149,12 @@
       <c r="M115" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -52730,8 +53195,12 @@
       <c r="M116" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -52772,8 +53241,12 @@
       <c r="M117" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -52814,8 +53287,12 @@
       <c r="M118" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -52856,8 +53333,12 @@
       <c r="M119" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -52898,8 +53379,12 @@
       <c r="M120" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -52940,8 +53425,12 @@
       <c r="M121" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -52982,8 +53471,12 @@
       <c r="M122" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>
@@ -53024,8 +53517,12 @@
       <c r="M123" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -53066,8 +53563,12 @@
       <c r="M124" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -53108,8 +53609,12 @@
       <c r="M125" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -53150,8 +53655,12 @@
       <c r="M126" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -53192,8 +53701,12 @@
       <c r="M127" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10</v>
       </c>
@@ -53234,8 +53747,12 @@
       <c r="M128" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>11</v>
       </c>
@@ -53276,8 +53793,12 @@
       <c r="M129" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>11</v>
       </c>
@@ -53318,8 +53839,12 @@
       <c r="M130" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11</v>
       </c>
@@ -53360,8 +53885,12 @@
       <c r="M131" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="2">IF(I131="Coyote",1,IF(I131="Deer",2,IF(I131="Deer Mouse",3,IF(I131="Opossum",4,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -53402,8 +53931,12 @@
       <c r="M132" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11</v>
       </c>
@@ -53444,8 +53977,12 @@
       <c r="M133" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11</v>
       </c>
@@ -53486,8 +54023,12 @@
       <c r="M134" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11</v>
       </c>
@@ -53528,8 +54069,12 @@
       <c r="M135" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11</v>
       </c>
@@ -53570,8 +54115,12 @@
       <c r="M136" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11</v>
       </c>
@@ -53612,8 +54161,12 @@
       <c r="M137" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -53654,8 +54207,12 @@
       <c r="M138" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -53696,8 +54253,12 @@
       <c r="M139" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>11</v>
       </c>
@@ -53738,8 +54299,12 @@
       <c r="M140" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>11</v>
       </c>
@@ -53780,8 +54345,12 @@
       <c r="M141" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>11</v>
       </c>
@@ -53822,8 +54391,12 @@
       <c r="M142" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>11</v>
       </c>
@@ -53864,8 +54437,12 @@
       <c r="M143" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>11</v>
       </c>
@@ -53906,8 +54483,12 @@
       <c r="M144" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11</v>
       </c>
@@ -53948,8 +54529,12 @@
       <c r="M145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>11</v>
       </c>
@@ -53990,8 +54575,12 @@
       <c r="M146" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>11</v>
       </c>
@@ -54032,8 +54621,12 @@
       <c r="M147" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>11</v>
       </c>
@@ -54074,8 +54667,12 @@
       <c r="M148" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>11</v>
       </c>
@@ -54116,8 +54713,12 @@
       <c r="M149" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>12</v>
       </c>
@@ -54158,8 +54759,12 @@
       <c r="M150" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>12</v>
       </c>
@@ -54200,8 +54805,12 @@
       <c r="M151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>12</v>
       </c>
@@ -54242,8 +54851,12 @@
       <c r="M152" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
@@ -54284,8 +54897,12 @@
       <c r="M153" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12</v>
       </c>
@@ -54326,8 +54943,12 @@
       <c r="M154" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>12</v>
       </c>
@@ -54368,8 +54989,12 @@
       <c r="M155" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>12</v>
       </c>
@@ -54410,8 +55035,12 @@
       <c r="M156" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>12</v>
       </c>
@@ -54452,8 +55081,12 @@
       <c r="M157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>12</v>
       </c>
@@ -54494,8 +55127,12 @@
       <c r="M158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>12</v>
       </c>
@@ -54536,8 +55173,12 @@
       <c r="M159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>12</v>
       </c>
@@ -54578,8 +55219,12 @@
       <c r="M160" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -54620,8 +55265,12 @@
       <c r="M161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -54662,8 +55311,12 @@
       <c r="M162" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -54704,8 +55357,12 @@
       <c r="M163" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -54746,8 +55403,12 @@
       <c r="M164" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -54788,8 +55449,12 @@
       <c r="M165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -54830,8 +55495,12 @@
       <c r="M166" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -54872,8 +55541,12 @@
       <c r="M167" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2</v>
       </c>
@@ -54914,8 +55587,12 @@
       <c r="M168" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2</v>
       </c>
@@ -54956,8 +55633,12 @@
       <c r="M169" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -54998,8 +55679,12 @@
       <c r="M170" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -55040,8 +55725,12 @@
       <c r="M171" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -55082,8 +55771,12 @@
       <c r="M172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -55124,8 +55817,12 @@
       <c r="M173" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2</v>
       </c>
@@ -55166,8 +55863,12 @@
       <c r="M174" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -55208,8 +55909,12 @@
       <c r="M175" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -55250,8 +55955,12 @@
       <c r="M176" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -55292,8 +56001,12 @@
       <c r="M177" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -55334,8 +56047,12 @@
       <c r="M178" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -55376,8 +56093,12 @@
       <c r="M179" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2</v>
       </c>
@@ -55418,8 +56139,12 @@
       <c r="M180" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -55460,8 +56185,12 @@
       <c r="M181" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2</v>
       </c>
@@ -55502,8 +56231,12 @@
       <c r="M182" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -55544,8 +56277,12 @@
       <c r="M183" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -55586,8 +56323,12 @@
       <c r="M184" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -55628,8 +56369,12 @@
       <c r="M185" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -55670,8 +56415,12 @@
       <c r="M186" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -55712,8 +56461,12 @@
       <c r="M187" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -55754,8 +56507,12 @@
       <c r="M188" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3</v>
       </c>
@@ -55796,8 +56553,12 @@
       <c r="M189" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -55838,8 +56599,12 @@
       <c r="M190" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -55880,8 +56645,12 @@
       <c r="M191" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4</v>
       </c>
@@ -55922,8 +56691,12 @@
       <c r="M192" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -55964,8 +56737,12 @@
       <c r="M193" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4</v>
       </c>
@@ -56006,8 +56783,12 @@
       <c r="M194" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4</v>
       </c>
@@ -56048,8 +56829,12 @@
       <c r="M195" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <f t="shared" ref="N195:N258" si="3">IF(I195="Coyote",1,IF(I195="Deer",2,IF(I195="Deer Mouse",3,IF(I195="Opossum",4,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4</v>
       </c>
@@ -56090,8 +56875,12 @@
       <c r="M196" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4</v>
       </c>
@@ -56132,8 +56921,12 @@
       <c r="M197" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4</v>
       </c>
@@ -56174,8 +56967,12 @@
       <c r="M198" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4</v>
       </c>
@@ -56216,8 +57013,12 @@
       <c r="M199" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4</v>
       </c>
@@ -56258,8 +57059,12 @@
       <c r="M200" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4</v>
       </c>
@@ -56300,8 +57105,12 @@
       <c r="M201" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4</v>
       </c>
@@ -56342,8 +57151,12 @@
       <c r="M202" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4</v>
       </c>
@@ -56384,8 +57197,12 @@
       <c r="M203" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -56426,8 +57243,12 @@
       <c r="M204" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4</v>
       </c>
@@ -56468,8 +57289,12 @@
       <c r="M205" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>5</v>
       </c>
@@ -56510,8 +57335,12 @@
       <c r="M206" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5</v>
       </c>
@@ -56552,8 +57381,12 @@
       <c r="M207" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5</v>
       </c>
@@ -56594,8 +57427,12 @@
       <c r="M208" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -56636,8 +57473,12 @@
       <c r="M209" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -56678,8 +57519,12 @@
       <c r="M210" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -56720,8 +57565,12 @@
       <c r="M211" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>5</v>
       </c>
@@ -56762,8 +57611,12 @@
       <c r="M212" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5</v>
       </c>
@@ -56804,8 +57657,12 @@
       <c r="M213" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -56846,8 +57703,12 @@
       <c r="M214" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>5</v>
       </c>
@@ -56888,8 +57749,12 @@
       <c r="M215" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5</v>
       </c>
@@ -56930,8 +57795,12 @@
       <c r="M216" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5</v>
       </c>
@@ -56972,8 +57841,12 @@
       <c r="M217" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -57014,8 +57887,12 @@
       <c r="M218" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -57056,8 +57933,12 @@
       <c r="M219" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>6</v>
       </c>
@@ -57098,8 +57979,12 @@
       <c r="M220" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>6</v>
       </c>
@@ -57140,8 +58025,12 @@
       <c r="M221" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6</v>
       </c>
@@ -57182,8 +58071,12 @@
       <c r="M222" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6</v>
       </c>
@@ -57224,8 +58117,12 @@
       <c r="M223" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -57266,8 +58163,12 @@
       <c r="M224" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>10</v>
       </c>
@@ -57308,8 +58209,12 @@
       <c r="M225" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>10</v>
       </c>
@@ -57350,8 +58255,12 @@
       <c r="M226" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10</v>
       </c>
@@ -57392,8 +58301,12 @@
       <c r="M227" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10</v>
       </c>
@@ -57434,8 +58347,12 @@
       <c r="M228" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>10</v>
       </c>
@@ -57476,8 +58393,12 @@
       <c r="M229" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>10</v>
       </c>
@@ -57518,8 +58439,12 @@
       <c r="M230" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10</v>
       </c>
@@ -57560,8 +58485,12 @@
       <c r="M231" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10</v>
       </c>
@@ -57602,8 +58531,12 @@
       <c r="M232" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -57644,8 +58577,12 @@
       <c r="M233" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10</v>
       </c>
@@ -57686,8 +58623,12 @@
       <c r="M234" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10</v>
       </c>
@@ -57728,8 +58669,12 @@
       <c r="M235" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>10</v>
       </c>
@@ -57770,8 +58715,12 @@
       <c r="M236" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>10</v>
       </c>
@@ -57812,8 +58761,12 @@
       <c r="M237" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>11</v>
       </c>
@@ -57854,8 +58807,12 @@
       <c r="M238" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>11</v>
       </c>
@@ -57896,8 +58853,12 @@
       <c r="M239" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11</v>
       </c>
@@ -57938,8 +58899,12 @@
       <c r="M240" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>11</v>
       </c>
@@ -57980,8 +58945,12 @@
       <c r="M241" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>11</v>
       </c>
@@ -58022,8 +58991,12 @@
       <c r="M242" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>11</v>
       </c>
@@ -58064,8 +59037,12 @@
       <c r="M243" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>12</v>
       </c>
@@ -58106,8 +59083,12 @@
       <c r="M244" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -58148,8 +59129,12 @@
       <c r="M245" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4</v>
       </c>
@@ -58190,8 +59175,12 @@
       <c r="M246" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4</v>
       </c>
@@ -58232,8 +59221,12 @@
       <c r="M247" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -58274,8 +59267,12 @@
       <c r="M248" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4</v>
       </c>
@@ -58316,8 +59313,12 @@
       <c r="M249" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4</v>
       </c>
@@ -58358,8 +59359,12 @@
       <c r="M250" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5</v>
       </c>
@@ -58400,8 +59405,12 @@
       <c r="M251" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>5</v>
       </c>
@@ -58442,8 +59451,12 @@
       <c r="M252" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>5</v>
       </c>
@@ -58484,8 +59497,12 @@
       <c r="M253" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>5</v>
       </c>
@@ -58526,8 +59543,12 @@
       <c r="M254" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>5</v>
       </c>
@@ -58568,8 +59589,12 @@
       <c r="M255" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>5</v>
       </c>
@@ -58610,8 +59635,12 @@
       <c r="M256" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>5</v>
       </c>
@@ -58652,8 +59681,12 @@
       <c r="M257" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>5</v>
       </c>
@@ -58694,8 +59727,12 @@
       <c r="M258" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>5</v>
       </c>
@@ -58736,8 +59773,12 @@
       <c r="M259" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <f t="shared" ref="N259:N322" si="4">IF(I259="Coyote",1,IF(I259="Deer",2,IF(I259="Deer Mouse",3,IF(I259="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>5</v>
       </c>
@@ -58778,8 +59819,12 @@
       <c r="M260" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>5</v>
       </c>
@@ -58820,8 +59865,12 @@
       <c r="M261" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>5</v>
       </c>
@@ -58862,8 +59911,12 @@
       <c r="M262" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>5</v>
       </c>
@@ -58904,8 +59957,12 @@
       <c r="M263" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -58946,8 +60003,12 @@
       <c r="M264" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>5</v>
       </c>
@@ -58988,8 +60049,12 @@
       <c r="M265" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>5</v>
       </c>
@@ -59030,8 +60095,12 @@
       <c r="M266" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>5</v>
       </c>
@@ -59072,8 +60141,12 @@
       <c r="M267" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>5</v>
       </c>
@@ -59114,8 +60187,12 @@
       <c r="M268" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>6</v>
       </c>
@@ -59156,8 +60233,12 @@
       <c r="M269" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6</v>
       </c>
@@ -59198,8 +60279,12 @@
       <c r="M270" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6</v>
       </c>
@@ -59240,8 +60325,12 @@
       <c r="M271" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -59282,8 +60371,12 @@
       <c r="M272" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -59324,8 +60417,12 @@
       <c r="M273" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>6</v>
       </c>
@@ -59366,8 +60463,12 @@
       <c r="M274" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>6</v>
       </c>
@@ -59408,8 +60509,12 @@
       <c r="M275" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>6</v>
       </c>
@@ -59450,8 +60555,12 @@
       <c r="M276" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6</v>
       </c>
@@ -59492,8 +60601,12 @@
       <c r="M277" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>6</v>
       </c>
@@ -59534,8 +60647,12 @@
       <c r="M278" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>6</v>
       </c>
@@ -59576,8 +60693,12 @@
       <c r="M279" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6</v>
       </c>
@@ -59618,8 +60739,12 @@
       <c r="M280" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>6</v>
       </c>
@@ -59660,8 +60785,12 @@
       <c r="M281" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>6</v>
       </c>
@@ -59702,8 +60831,12 @@
       <c r="M282" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6</v>
       </c>
@@ -59744,8 +60877,12 @@
       <c r="M283" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10</v>
       </c>
@@ -59786,8 +60923,12 @@
       <c r="M284" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>10</v>
       </c>
@@ -59828,8 +60969,12 @@
       <c r="M285" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>10</v>
       </c>
@@ -59870,8 +61015,12 @@
       <c r="M286" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>10</v>
       </c>
@@ -59912,8 +61061,12 @@
       <c r="M287" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>10</v>
       </c>
@@ -59954,8 +61107,12 @@
       <c r="M288" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>10</v>
       </c>
@@ -59996,8 +61153,12 @@
       <c r="M289" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>10</v>
       </c>
@@ -60038,8 +61199,12 @@
       <c r="M290" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>10</v>
       </c>
@@ -60080,8 +61245,12 @@
       <c r="M291" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>10</v>
       </c>
@@ -60122,8 +61291,12 @@
       <c r="M292" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10</v>
       </c>
@@ -60164,8 +61337,12 @@
       <c r="M293" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>10</v>
       </c>
@@ -60206,8 +61383,12 @@
       <c r="M294" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>10</v>
       </c>
@@ -60248,8 +61429,12 @@
       <c r="M295" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>10</v>
       </c>
@@ -60290,8 +61475,12 @@
       <c r="M296" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>11</v>
       </c>
@@ -60332,8 +61521,12 @@
       <c r="M297" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>11</v>
       </c>
@@ -60374,8 +61567,12 @@
       <c r="M298" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>11</v>
       </c>
@@ -60416,8 +61613,12 @@
       <c r="M299" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>11</v>
       </c>
@@ -60458,8 +61659,12 @@
       <c r="M300" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11</v>
       </c>
@@ -60500,8 +61705,12 @@
       <c r="M301" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>11</v>
       </c>
@@ -60542,8 +61751,12 @@
       <c r="M302" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>11</v>
       </c>
@@ -60584,8 +61797,12 @@
       <c r="M303" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>11</v>
       </c>
@@ -60626,8 +61843,12 @@
       <c r="M304" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>11</v>
       </c>
@@ -60668,8 +61889,12 @@
       <c r="M305" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11</v>
       </c>
@@ -60710,8 +61935,12 @@
       <c r="M306" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>11</v>
       </c>
@@ -60752,8 +61981,12 @@
       <c r="M307" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>11</v>
       </c>
@@ -60794,8 +62027,12 @@
       <c r="M308" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>12</v>
       </c>
@@ -60836,8 +62073,12 @@
       <c r="M309" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>12</v>
       </c>
@@ -60878,8 +62119,12 @@
       <c r="M310" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>12</v>
       </c>
@@ -60920,8 +62165,12 @@
       <c r="M311" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>12</v>
       </c>
@@ -60962,8 +62211,12 @@
       <c r="M312" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>12</v>
       </c>
@@ -61004,8 +62257,12 @@
       <c r="M313" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>12</v>
       </c>
@@ -61046,8 +62303,12 @@
       <c r="M314" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>12</v>
       </c>
@@ -61088,8 +62349,12 @@
       <c r="M315" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>12</v>
       </c>
@@ -61130,8 +62395,12 @@
       <c r="M316" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -61172,8 +62441,12 @@
       <c r="M317" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>12</v>
       </c>
@@ -61214,8 +62487,12 @@
       <c r="M318" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -61256,8 +62533,12 @@
       <c r="M319" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -61298,8 +62579,12 @@
       <c r="M320" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -61340,8 +62625,12 @@
       <c r="M321" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -61382,8 +62671,12 @@
       <c r="M322" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -61424,8 +62717,12 @@
       <c r="M323" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <f t="shared" ref="N323:N350" si="5">IF(I323="Coyote",1,IF(I323="Deer",2,IF(I323="Deer Mouse",3,IF(I323="Opossum",4,5))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -61466,8 +62763,12 @@
       <c r="M324" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -61508,8 +62809,12 @@
       <c r="M325" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2</v>
       </c>
@@ -61550,8 +62855,12 @@
       <c r="M326" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2</v>
       </c>
@@ -61592,8 +62901,12 @@
       <c r="M327" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2</v>
       </c>
@@ -61634,8 +62947,12 @@
       <c r="M328" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2</v>
       </c>
@@ -61676,8 +62993,12 @@
       <c r="M329" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2</v>
       </c>
@@ -61718,8 +63039,12 @@
       <c r="M330" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3</v>
       </c>
@@ -61760,8 +63085,12 @@
       <c r="M331" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3</v>
       </c>
@@ -61802,8 +63131,12 @@
       <c r="M332" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3</v>
       </c>
@@ -61844,8 +63177,12 @@
       <c r="M333" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3</v>
       </c>
@@ -61886,8 +63223,12 @@
       <c r="M334" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3</v>
       </c>
@@ -61928,8 +63269,12 @@
       <c r="M335" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3</v>
       </c>
@@ -61970,8 +63315,12 @@
       <c r="M336" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3</v>
       </c>
@@ -62012,8 +63361,12 @@
       <c r="M337" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
@@ -62054,8 +63407,12 @@
       <c r="M338" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3</v>
       </c>
@@ -62096,8 +63453,12 @@
       <c r="M339" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>4</v>
       </c>
@@ -62138,8 +63499,12 @@
       <c r="M340" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4</v>
       </c>
@@ -62180,8 +63545,12 @@
       <c r="M341" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4</v>
       </c>
@@ -62222,8 +63591,12 @@
       <c r="M342" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4</v>
       </c>
@@ -62264,8 +63637,12 @@
       <c r="M343" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4</v>
       </c>
@@ -62306,8 +63683,12 @@
       <c r="M344" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>5</v>
       </c>
@@ -62348,8 +63729,12 @@
       <c r="M345" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>5</v>
       </c>
@@ -62390,8 +63775,12 @@
       <c r="M346" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>5</v>
       </c>
@@ -62432,8 +63821,12 @@
       <c r="M347" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>5</v>
       </c>
@@ -62474,8 +63867,12 @@
       <c r="M348" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>5</v>
       </c>
@@ -62516,8 +63913,12 @@
       <c r="M349" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>6</v>
       </c>
@@ -62557,6 +63958,10 @@
       </c>
       <c r="M350" t="s">
         <v>52</v>
+      </c>
+      <c r="N350">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -62567,18 +63972,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A159" activeCellId="1" sqref="A29:XFD29 A159:XFD159"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="54.140625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -62618,8 +64023,11 @@
       <c r="M1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -62659,8 +64067,12 @@
       <c r="M2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>IF(I2="Coyote",1,IF(I2="Deer",2,IF(I2="Deer Mouse",3,IF(I2="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -62700,8 +64112,12 @@
       <c r="M3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">IF(I3="Coyote",1,IF(I3="Deer",2,IF(I3="Deer Mouse",3,IF(I3="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -62741,8 +64157,12 @@
       <c r="M4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -62782,8 +64202,12 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -62823,8 +64247,12 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -62864,8 +64292,12 @@
       <c r="M7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -62905,8 +64337,12 @@
       <c r="M8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -62946,8 +64382,12 @@
       <c r="M9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -62987,8 +64427,12 @@
       <c r="M10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -63028,8 +64472,12 @@
       <c r="M11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -63069,8 +64517,12 @@
       <c r="M12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -63110,8 +64562,12 @@
       <c r="M13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -63151,8 +64607,12 @@
       <c r="M14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -63192,8 +64652,12 @@
       <c r="M15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -63233,8 +64697,12 @@
       <c r="M16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -63274,8 +64742,12 @@
       <c r="M17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -63315,8 +64787,12 @@
       <c r="M18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -63356,8 +64832,12 @@
       <c r="M19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -63397,8 +64877,12 @@
       <c r="M20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -63438,8 +64922,12 @@
       <c r="M21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -63479,8 +64967,12 @@
       <c r="M22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -63520,8 +65012,12 @@
       <c r="M23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
@@ -63561,8 +65057,12 @@
       <c r="M24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
@@ -63602,8 +65102,12 @@
       <c r="M25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
@@ -63643,8 +65147,12 @@
       <c r="M26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
@@ -63684,8 +65192,12 @@
       <c r="M27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>11</v>
       </c>
@@ -63725,8 +65237,12 @@
       <c r="M28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -63766,8 +65282,12 @@
       <c r="M29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -63807,8 +65327,12 @@
       <c r="M30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -63848,8 +65372,12 @@
       <c r="M31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -63889,8 +65417,12 @@
       <c r="M32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -63930,8 +65462,12 @@
       <c r="M33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -63971,8 +65507,12 @@
       <c r="M34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -64012,8 +65552,12 @@
       <c r="M35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -64053,8 +65597,12 @@
       <c r="M36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -64094,8 +65642,12 @@
       <c r="M37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -64135,8 +65687,12 @@
       <c r="M38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -64176,8 +65732,12 @@
       <c r="M39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -64217,8 +65777,12 @@
       <c r="M40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -64258,8 +65822,12 @@
       <c r="M41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -64299,8 +65867,12 @@
       <c r="M42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -64340,8 +65912,12 @@
       <c r="M43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -64381,8 +65957,12 @@
       <c r="M44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -64422,8 +66002,12 @@
       <c r="M45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -64463,8 +66047,12 @@
       <c r="M46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -64504,8 +66092,12 @@
       <c r="M47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -64545,8 +66137,12 @@
       <c r="M48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -64586,8 +66182,12 @@
       <c r="M49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6</v>
       </c>
@@ -64627,8 +66227,12 @@
       <c r="M50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
@@ -64668,8 +66272,12 @@
       <c r="M51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -64709,8 +66317,12 @@
       <c r="M52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -64750,8 +66362,12 @@
       <c r="M53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6</v>
       </c>
@@ -64791,8 +66407,12 @@
       <c r="M54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -64832,8 +66452,12 @@
       <c r="M55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -64873,8 +66497,12 @@
       <c r="M56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -64914,8 +66542,12 @@
       <c r="M57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -64955,8 +66587,12 @@
       <c r="M58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -64996,8 +66632,12 @@
       <c r="M59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -65037,8 +66677,12 @@
       <c r="M60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -65078,8 +66722,12 @@
       <c r="M61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -65119,8 +66767,12 @@
       <c r="M62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -65160,8 +66812,12 @@
       <c r="M63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -65201,8 +66857,12 @@
       <c r="M64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -65242,8 +66902,12 @@
       <c r="M65" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -65283,8 +66947,12 @@
       <c r="M66" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -65324,8 +66992,12 @@
       <c r="M67" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="1">IF(I67="Coyote",1,IF(I67="Deer",2,IF(I67="Deer Mouse",3,IF(I67="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6</v>
       </c>
@@ -65365,8 +67037,12 @@
       <c r="M68" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -65406,8 +67082,12 @@
       <c r="M69" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -65447,8 +67127,12 @@
       <c r="M70" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -65488,8 +67172,12 @@
       <c r="M71" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -65529,8 +67217,12 @@
       <c r="M72" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -65570,8 +67262,12 @@
       <c r="M73" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6</v>
       </c>
@@ -65611,8 +67307,12 @@
       <c r="M74" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6</v>
       </c>
@@ -65652,8 +67352,12 @@
       <c r="M75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6</v>
       </c>
@@ -65693,8 +67397,12 @@
       <c r="M76" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6</v>
       </c>
@@ -65734,8 +67442,12 @@
       <c r="M77" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -65775,8 +67487,12 @@
       <c r="M78" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -65816,8 +67532,12 @@
       <c r="M79" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
@@ -65857,8 +67577,12 @@
       <c r="M80" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6</v>
       </c>
@@ -65898,8 +67622,12 @@
       <c r="M81" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6</v>
       </c>
@@ -65939,8 +67667,12 @@
       <c r="M82" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6</v>
       </c>
@@ -65980,8 +67712,12 @@
       <c r="M83" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
@@ -66021,8 +67757,12 @@
       <c r="M84" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -66062,8 +67802,12 @@
       <c r="M85" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6</v>
       </c>
@@ -66103,8 +67847,12 @@
       <c r="M86" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -66144,8 +67892,12 @@
       <c r="M87" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -66185,8 +67937,12 @@
       <c r="M88" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6</v>
       </c>
@@ -66226,8 +67982,12 @@
       <c r="M89" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6</v>
       </c>
@@ -66267,8 +68027,12 @@
       <c r="M90" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -66308,8 +68072,12 @@
       <c r="M91" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -66349,8 +68117,12 @@
       <c r="M92" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
@@ -66390,8 +68162,12 @@
       <c r="M93" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6</v>
       </c>
@@ -66431,8 +68207,12 @@
       <c r="M94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6</v>
       </c>
@@ -66472,8 +68252,12 @@
       <c r="M95" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>6</v>
       </c>
@@ -66513,8 +68297,12 @@
       <c r="M96" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -66554,8 +68342,12 @@
       <c r="M97" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6</v>
       </c>
@@ -66595,8 +68387,12 @@
       <c r="M98" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -66636,8 +68432,12 @@
       <c r="M99" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6</v>
       </c>
@@ -66677,8 +68477,12 @@
       <c r="M100" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
@@ -66718,8 +68522,12 @@
       <c r="M101" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6</v>
       </c>
@@ -66759,8 +68567,12 @@
       <c r="M102" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6</v>
       </c>
@@ -66800,8 +68612,12 @@
       <c r="M103" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6</v>
       </c>
@@ -66841,8 +68657,12 @@
       <c r="M104" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6</v>
       </c>
@@ -66882,8 +68702,12 @@
       <c r="M105" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6</v>
       </c>
@@ -66923,8 +68747,12 @@
       <c r="M106" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6</v>
       </c>
@@ -66964,8 +68792,12 @@
       <c r="M107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -67005,8 +68837,12 @@
       <c r="M108" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -67046,8 +68882,12 @@
       <c r="M109" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -67087,8 +68927,12 @@
       <c r="M110" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -67128,8 +68972,12 @@
       <c r="M111" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -67169,8 +69017,12 @@
       <c r="M112" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -67210,8 +69062,12 @@
       <c r="M113" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -67251,8 +69107,12 @@
       <c r="M114" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -67292,8 +69152,12 @@
       <c r="M115" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -67333,8 +69197,12 @@
       <c r="M116" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -67374,8 +69242,12 @@
       <c r="M117" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -67415,8 +69287,12 @@
       <c r="M118" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -67456,8 +69332,12 @@
       <c r="M119" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -67497,8 +69377,12 @@
       <c r="M120" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -67538,8 +69422,12 @@
       <c r="M121" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -67579,8 +69467,12 @@
       <c r="M122" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>
@@ -67620,8 +69512,12 @@
       <c r="M123" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -67661,8 +69557,12 @@
       <c r="M124" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -67702,8 +69602,12 @@
       <c r="M125" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -67743,8 +69647,12 @@
       <c r="M126" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -67784,8 +69692,12 @@
       <c r="M127" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10</v>
       </c>
@@ -67825,8 +69737,12 @@
       <c r="M128" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10</v>
       </c>
@@ -67866,8 +69782,12 @@
       <c r="M129" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10</v>
       </c>
@@ -67907,8 +69827,12 @@
       <c r="M130" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -67948,8 +69872,12 @@
       <c r="M131" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="2">IF(I131="Coyote",1,IF(I131="Deer",2,IF(I131="Deer Mouse",3,IF(I131="Opossum",4,5))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -67989,8 +69917,12 @@
       <c r="M132" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11</v>
       </c>
@@ -68030,8 +69962,12 @@
       <c r="M133" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11</v>
       </c>
@@ -68071,8 +70007,12 @@
       <c r="M134" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11</v>
       </c>
@@ -68112,8 +70052,12 @@
       <c r="M135" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11</v>
       </c>
@@ -68153,8 +70097,12 @@
       <c r="M136" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11</v>
       </c>
@@ -68194,8 +70142,12 @@
       <c r="M137" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -68235,8 +70187,12 @@
       <c r="M138" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -68276,8 +70232,12 @@
       <c r="M139" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>11</v>
       </c>
@@ -68317,8 +70277,12 @@
       <c r="M140" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>11</v>
       </c>
@@ -68358,8 +70322,12 @@
       <c r="M141" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>6</v>
       </c>
@@ -68399,8 +70367,12 @@
       <c r="M142" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>6</v>
       </c>
@@ -68440,8 +70412,12 @@
       <c r="M143" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6</v>
       </c>
@@ -68481,8 +70457,12 @@
       <c r="M144" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6</v>
       </c>
@@ -68522,8 +70502,12 @@
       <c r="M145" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>6</v>
       </c>
@@ -68563,8 +70547,12 @@
       <c r="M146" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6</v>
       </c>
@@ -68604,8 +70592,12 @@
       <c r="M147" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6</v>
       </c>
@@ -68645,8 +70637,12 @@
       <c r="M148" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>6</v>
       </c>
@@ -68686,8 +70682,12 @@
       <c r="M149" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10</v>
       </c>
@@ -68727,8 +70727,12 @@
       <c r="M150" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -68768,8 +70772,12 @@
       <c r="M151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10</v>
       </c>
@@ -68809,8 +70817,12 @@
       <c r="M152" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10</v>
       </c>
@@ -68850,8 +70862,12 @@
       <c r="M153" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -68891,8 +70907,12 @@
       <c r="M154" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10</v>
       </c>
@@ -68932,8 +70952,12 @@
       <c r="M155" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10</v>
       </c>
@@ -68973,8 +70997,12 @@
       <c r="M156" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -69014,8 +71042,12 @@
       <c r="M157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>5</v>
       </c>
@@ -69055,8 +71087,12 @@
       <c r="M158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -69096,8 +71132,12 @@
       <c r="M159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6</v>
       </c>
@@ -69137,8 +71177,12 @@
       <c r="M160" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6</v>
       </c>
@@ -69178,8 +71222,12 @@
       <c r="M161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6</v>
       </c>
@@ -69219,8 +71267,12 @@
       <c r="M162" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6</v>
       </c>
@@ -69260,8 +71312,12 @@
       <c r="M163" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6</v>
       </c>
@@ -69301,8 +71357,12 @@
       <c r="M164" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6</v>
       </c>
@@ -69342,8 +71402,12 @@
       <c r="M165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -69383,8 +71447,12 @@
       <c r="M166" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6</v>
       </c>
@@ -69424,8 +71492,12 @@
       <c r="M167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6</v>
       </c>
@@ -69465,8 +71537,12 @@
       <c r="M168" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10</v>
       </c>
@@ -69506,8 +71582,12 @@
       <c r="M169" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10</v>
       </c>
@@ -69547,8 +71627,12 @@
       <c r="M170" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10</v>
       </c>
@@ -69588,8 +71672,12 @@
       <c r="M171" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>11</v>
       </c>
@@ -69629,8 +71717,12 @@
       <c r="M172" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>11</v>
       </c>
@@ -69670,8 +71762,12 @@
       <c r="M173" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11</v>
       </c>
@@ -69711,8 +71807,12 @@
       <c r="M174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>11</v>
       </c>
@@ -69752,8 +71852,12 @@
       <c r="M175" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>12</v>
       </c>
@@ -69793,8 +71897,12 @@
       <c r="M176" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>12</v>
       </c>
@@ -69834,8 +71942,12 @@
       <c r="M177" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>12</v>
       </c>
@@ -69875,8 +71987,12 @@
       <c r="M178" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>12</v>
       </c>
@@ -69916,8 +72032,12 @@
       <c r="M179" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>12</v>
       </c>
@@ -69957,8 +72077,12 @@
       <c r="M180" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -69998,8 +72122,12 @@
       <c r="M181" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -70039,8 +72167,12 @@
       <c r="M182" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -70080,8 +72212,12 @@
       <c r="M183" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -70121,8 +72257,12 @@
       <c r="M184" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -70162,8 +72302,12 @@
       <c r="M185" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -70203,8 +72347,12 @@
       <c r="M186" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -70244,8 +72392,12 @@
       <c r="M187" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -70285,8 +72437,12 @@
       <c r="M188" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -70326,8 +72482,12 @@
       <c r="M189" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4</v>
       </c>
@@ -70367,8 +72527,12 @@
       <c r="M190" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -70408,8 +72572,12 @@
       <c r="M191" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4</v>
       </c>
@@ -70449,8 +72617,12 @@
       <c r="M192" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -70490,8 +72662,12 @@
       <c r="M193" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>5</v>
       </c>
@@ -70531,8 +72707,12 @@
       <c r="M194" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5</v>
       </c>
@@ -70572,8 +72752,12 @@
       <c r="M195" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <f t="shared" ref="N195:N223" si="3">IF(I195="Coyote",1,IF(I195="Deer",2,IF(I195="Deer Mouse",3,IF(I195="Opossum",4,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5</v>
       </c>
@@ -70613,8 +72797,12 @@
       <c r="M196" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>5</v>
       </c>
@@ -70654,8 +72842,12 @@
       <c r="M197" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>5</v>
       </c>
@@ -70695,8 +72887,12 @@
       <c r="M198" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>5</v>
       </c>
@@ -70736,8 +72932,12 @@
       <c r="M199" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>5</v>
       </c>
@@ -70777,8 +72977,12 @@
       <c r="M200" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>5</v>
       </c>
@@ -70818,8 +73022,12 @@
       <c r="M201" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5</v>
       </c>
@@ -70859,8 +73067,12 @@
       <c r="M202" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>5</v>
       </c>
@@ -70900,8 +73112,12 @@
       <c r="M203" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -70941,8 +73157,12 @@
       <c r="M204" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>5</v>
       </c>
@@ -70982,8 +73202,12 @@
       <c r="M205" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>5</v>
       </c>
@@ -71023,8 +73247,12 @@
       <c r="M206" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5</v>
       </c>
@@ -71064,8 +73292,12 @@
       <c r="M207" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5</v>
       </c>
@@ -71105,8 +73337,12 @@
       <c r="M208" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>6</v>
       </c>
@@ -71146,8 +73382,12 @@
       <c r="M209" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6</v>
       </c>
@@ -71187,8 +73427,12 @@
       <c r="M210" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>6</v>
       </c>
@@ -71228,8 +73472,12 @@
       <c r="M211" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6</v>
       </c>
@@ -71269,8 +73517,12 @@
       <c r="M212" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -71310,8 +73562,12 @@
       <c r="M213" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>6</v>
       </c>
@@ -71351,8 +73607,12 @@
       <c r="M214" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -71392,8 +73652,12 @@
       <c r="M215" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6</v>
       </c>
@@ -71433,8 +73697,12 @@
       <c r="M216" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>6</v>
       </c>
@@ -71474,8 +73742,12 @@
       <c r="M217" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>6</v>
       </c>
@@ -71515,8 +73787,12 @@
       <c r="M218" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -71556,8 +73832,12 @@
       <c r="M219" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>6</v>
       </c>
@@ -71597,8 +73877,12 @@
       <c r="M220" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>6</v>
       </c>
@@ -71638,8 +73922,12 @@
       <c r="M221" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6</v>
       </c>
@@ -71679,8 +73967,12 @@
       <c r="M222" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6</v>
       </c>
@@ -71719,6 +74011,10 @@
       </c>
       <c r="M223" t="s">
         <v>52</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
